--- a/Ti_Terapia.xlsx
+++ b/Ti_Terapia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayo/Documents/GitHub/AnalisisTiCongreso2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayo/PycharmProjects/AnalisisTiCongreso2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ADD2CF-EB0B-6F40-B005-72E41E935993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797A55C-7D43-3642-974A-147289326BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="2940" windowWidth="28800" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2526,9 +2526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N131" sqref="N131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O79" s="3"/>
       <c r="P79" s="3" t="s">
@@ -7557,15 +7557,9 @@
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
-      <c r="M86" s="3">
-        <v>0</v>
-      </c>
-      <c r="N86" s="3">
-        <v>0</v>
-      </c>
-      <c r="O86" s="3">
-        <v>0</v>
-      </c>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
       <c r="P86" s="3" t="s">
         <v>485</v>
       </c>
@@ -9959,7 +9953,7 @@
       </c>
       <c r="M127" s="3"/>
       <c r="N127" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O127" s="3"/>
       <c r="P127" s="3" t="s">
@@ -10017,7 +10011,7 @@
         <v>3</v>
       </c>
       <c r="N128" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O128" s="3"/>
       <c r="P128" s="3" t="s">
